--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H2">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I2">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J2">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>492.5628679647405</v>
+        <v>1397.998091697027</v>
       </c>
       <c r="R2">
-        <v>4433.065811682664</v>
+        <v>12581.98282527324</v>
       </c>
       <c r="S2">
-        <v>0.008956108175607306</v>
+        <v>0.02235232216631619</v>
       </c>
       <c r="T2">
-        <v>0.008956108175607306</v>
+        <v>0.0223523221663162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H3">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I3">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J3">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>3515.562820531227</v>
+        <v>5497.187249384828</v>
       </c>
       <c r="R3">
-        <v>31640.06538478105</v>
+        <v>49474.68524446345</v>
       </c>
       <c r="S3">
-        <v>0.06392231929483298</v>
+        <v>0.08789346790713971</v>
       </c>
       <c r="T3">
-        <v>0.063922319294833</v>
+        <v>0.08789346790713976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H4">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I4">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J4">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>3437.883771968741</v>
+        <v>5088.14854790249</v>
       </c>
       <c r="R4">
-        <v>30940.95394771867</v>
+        <v>45793.33693112242</v>
       </c>
       <c r="S4">
-        <v>0.06250990677421708</v>
+        <v>0.08135342690971159</v>
       </c>
       <c r="T4">
-        <v>0.06250990677421708</v>
+        <v>0.08135342690971163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H5">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I5">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J5">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>1002.809171519214</v>
+        <v>1321.587118908865</v>
       </c>
       <c r="R5">
-        <v>9025.282543672929</v>
+        <v>11894.28407017979</v>
       </c>
       <c r="S5">
-        <v>0.01823374842835318</v>
+        <v>0.02113060184284327</v>
       </c>
       <c r="T5">
-        <v>0.01823374842835318</v>
+        <v>0.02113060184284328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H6">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I6">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J6">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>1492.404853717359</v>
+        <v>2546.50081368551</v>
       </c>
       <c r="R6">
-        <v>13431.64368345623</v>
+        <v>22918.50732316959</v>
       </c>
       <c r="S6">
-        <v>0.02713590524377665</v>
+        <v>0.04071551093119842</v>
       </c>
       <c r="T6">
-        <v>0.02713590524377665</v>
+        <v>0.04071551093119843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H7">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I7">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J7">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>3928.417777004529</v>
+        <v>6899.87987888567</v>
       </c>
       <c r="R7">
-        <v>35355.75999304077</v>
+        <v>62098.91890997103</v>
       </c>
       <c r="S7">
-        <v>0.07142912480432832</v>
+        <v>0.1103208501340068</v>
       </c>
       <c r="T7">
-        <v>0.07142912480432834</v>
+        <v>0.1103208501340068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>338.356186</v>
       </c>
       <c r="I8">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J8">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>1127.983694133098</v>
+        <v>2047.397003404046</v>
       </c>
       <c r="R8">
-        <v>10151.85324719789</v>
+        <v>18426.57303063641</v>
       </c>
       <c r="S8">
-        <v>0.02050975548912131</v>
+        <v>0.0327354362600629</v>
       </c>
       <c r="T8">
-        <v>0.02050975548912131</v>
+        <v>0.03273543626006292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>338.356186</v>
       </c>
       <c r="I9">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J9">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>8050.743966237533</v>
@@ -1013,10 +1013,10 @@
         <v>72456.6956961378</v>
       </c>
       <c r="S9">
-        <v>0.1463840223151019</v>
+        <v>0.1287217943147713</v>
       </c>
       <c r="T9">
-        <v>0.1463840223151019</v>
+        <v>0.1287217943147714</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>338.356186</v>
       </c>
       <c r="I10">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J10">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>7872.856622605025</v>
+        <v>7451.698361908686</v>
       </c>
       <c r="R10">
-        <v>70855.70960344523</v>
+        <v>67065.28525717818</v>
       </c>
       <c r="S10">
-        <v>0.1431495554150143</v>
+        <v>0.1191437695522198</v>
       </c>
       <c r="T10">
-        <v>0.1431495554150143</v>
+        <v>0.1191437695522198</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>338.356186</v>
       </c>
       <c r="I11">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J11">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>2296.46298446063</v>
+        <v>1935.491559725104</v>
       </c>
       <c r="R11">
-        <v>20668.16686014567</v>
+        <v>17419.42403752593</v>
       </c>
       <c r="S11">
-        <v>0.04175582904795757</v>
+        <v>0.03094620167946352</v>
       </c>
       <c r="T11">
-        <v>0.04175582904795757</v>
+        <v>0.03094620167946353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>338.356186</v>
       </c>
       <c r="I12">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J12">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>3417.651734476213</v>
+        <v>3729.402898380769</v>
       </c>
       <c r="R12">
-        <v>30758.86561028592</v>
+        <v>33564.62608542692</v>
       </c>
       <c r="S12">
-        <v>0.06214203430923664</v>
+        <v>0.05962870447942371</v>
       </c>
       <c r="T12">
-        <v>0.06214203430923664</v>
+        <v>0.05962870447942374</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>338.356186</v>
       </c>
       <c r="I13">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J13">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>8996.1941599725</v>
+        <v>10105.01621696057</v>
       </c>
       <c r="R13">
-        <v>80965.74743975249</v>
+        <v>90945.14595264515</v>
       </c>
       <c r="S13">
-        <v>0.1635748313680193</v>
+        <v>0.1615671575797135</v>
       </c>
       <c r="T13">
-        <v>0.1635748313680193</v>
+        <v>0.1615671575797136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H14">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I14">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J14">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>0.6734807971634444</v>
+        <v>1.463733509889</v>
       </c>
       <c r="R14">
-        <v>6.061327174471</v>
+        <v>13.173601589001</v>
       </c>
       <c r="S14">
-        <v>1.224567921352494E-05</v>
+        <v>2.340335310397711E-05</v>
       </c>
       <c r="T14">
-        <v>1.224567921352494E-05</v>
+        <v>2.340335310397712E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H15">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I15">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J15">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>4.806826102488555</v>
+        <v>5.755671080560333</v>
       </c>
       <c r="R15">
-        <v>43.261434922397</v>
+        <v>51.801039725043</v>
       </c>
       <c r="S15">
-        <v>8.740093367797684E-05</v>
+        <v>9.202631608735792E-05</v>
       </c>
       <c r="T15">
-        <v>8.740093367797688E-05</v>
+        <v>9.202631608735796E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H16">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I16">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J16">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>4.700615604395334</v>
+        <v>5.32739892643</v>
       </c>
       <c r="R16">
-        <v>42.305540439558</v>
+        <v>47.94659033787001</v>
       </c>
       <c r="S16">
-        <v>8.54697432205262E-05</v>
+        <v>8.517875512083118E-05</v>
       </c>
       <c r="T16">
-        <v>8.546974322052621E-05</v>
+        <v>8.517875512083122E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H17">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I17">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J17">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>1.371140141010222</v>
+        <v>1.383729608555</v>
       </c>
       <c r="R17">
-        <v>12.340261269092</v>
+        <v>12.453566476995</v>
       </c>
       <c r="S17">
-        <v>2.493098896704503E-05</v>
+        <v>2.212418613815604E-05</v>
       </c>
       <c r="T17">
-        <v>2.493098896704504E-05</v>
+        <v>2.212418613815604E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H18">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I18">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J18">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>2.040563907558111</v>
+        <v>2.666240101534333</v>
       </c>
       <c r="R18">
-        <v>18.365075168023</v>
+        <v>23.996160913809</v>
       </c>
       <c r="S18">
-        <v>3.710290053094018E-05</v>
+        <v>4.262999933705399E-05</v>
       </c>
       <c r="T18">
-        <v>3.710290053094019E-05</v>
+        <v>4.262999933705401E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H19">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I19">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J19">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>5.371322338973889</v>
+        <v>7.224319870618666</v>
       </c>
       <c r="R19">
-        <v>48.341901050765</v>
+        <v>65.018878835568</v>
       </c>
       <c r="S19">
-        <v>9.766498256898613E-05</v>
+        <v>0.0001155082586590426</v>
       </c>
       <c r="T19">
-        <v>9.766498256898617E-05</v>
+        <v>0.0001155082586590426</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H20">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I20">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J20">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>324.7458756371341</v>
+        <v>387.510804668381</v>
       </c>
       <c r="R20">
-        <v>2922.712880734206</v>
+        <v>3487.597242015429</v>
       </c>
       <c r="S20">
-        <v>0.005904747151985253</v>
+        <v>0.006195835602580527</v>
       </c>
       <c r="T20">
-        <v>0.005904747151985253</v>
+        <v>0.00619583560258053</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H21">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I21">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J21">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>2317.80469207535</v>
+        <v>1523.764207600605</v>
       </c>
       <c r="R21">
-        <v>20860.24222867815</v>
+        <v>13713.87786840545</v>
       </c>
       <c r="S21">
-        <v>0.04214387827878854</v>
+        <v>0.02436317236488161</v>
       </c>
       <c r="T21">
-        <v>0.04214387827878854</v>
+        <v>0.02436317236488162</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H22">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I22">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J22">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>2266.591025181787</v>
+        <v>1410.382853725137</v>
       </c>
       <c r="R22">
-        <v>20399.31922663609</v>
+        <v>12693.44568352623</v>
       </c>
       <c r="S22">
-        <v>0.04121267706448771</v>
+        <v>0.02255033974048142</v>
       </c>
       <c r="T22">
-        <v>0.04121267706448771</v>
+        <v>0.02255033974048143</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H23">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I23">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J23">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>661.1504108045516</v>
+        <v>366.3304627734284</v>
       </c>
       <c r="R23">
-        <v>5950.353697240964</v>
+        <v>3296.974164960855</v>
       </c>
       <c r="S23">
-        <v>0.01202147986505683</v>
+        <v>0.005857187196377047</v>
       </c>
       <c r="T23">
-        <v>0.01202147986505683</v>
+        <v>0.005857187196377049</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H24">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I24">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J24">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>983.9400258247767</v>
+        <v>705.8640389144513</v>
       </c>
       <c r="R24">
-        <v>8855.460232422991</v>
+        <v>6352.776350230061</v>
       </c>
       <c r="S24">
-        <v>0.01789065697544087</v>
+        <v>0.01128592413476076</v>
       </c>
       <c r="T24">
-        <v>0.01789065697544087</v>
+        <v>0.01128592413476076</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H25">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I25">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J25">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>2589.999274880668</v>
+        <v>1912.576290241186</v>
       </c>
       <c r="R25">
-        <v>23309.99347392601</v>
+        <v>17213.18661217067</v>
       </c>
       <c r="S25">
-        <v>0.04709310260520128</v>
+        <v>0.03057981385027077</v>
       </c>
       <c r="T25">
-        <v>0.04709310260520129</v>
+        <v>0.03057981385027078</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H26">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I26">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J26">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>3.504646438124778</v>
+        <v>8.457516227732999</v>
       </c>
       <c r="R26">
-        <v>31.541817943123</v>
+        <v>76.117646049597</v>
       </c>
       <c r="S26">
-        <v>6.372383031387827E-05</v>
+        <v>0.000135225597639875</v>
       </c>
       <c r="T26">
-        <v>6.372383031387827E-05</v>
+        <v>0.000135225597639875</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H27">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I27">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J27">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>25.01366935735123</v>
+        <v>33.25651919318566</v>
       </c>
       <c r="R27">
-        <v>225.123024216161</v>
+        <v>299.308672738671</v>
       </c>
       <c r="S27">
-        <v>0.0004548153001442808</v>
+        <v>0.0005317320785710087</v>
       </c>
       <c r="T27">
-        <v>0.000454815300144281</v>
+        <v>0.0005317320785710089</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H28">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I28">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J28">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>24.46097320713934</v>
+        <v>30.78194395871</v>
       </c>
       <c r="R28">
-        <v>220.148758864254</v>
+        <v>277.03749562839</v>
       </c>
       <c r="S28">
-        <v>0.0004447658083301847</v>
+        <v>0.0004921665718694625</v>
       </c>
       <c r="T28">
-        <v>0.0004447658083301848</v>
+        <v>0.0004921665718694627</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H29">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I29">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J29">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>7.13511273313289</v>
+        <v>7.995250187335</v>
       </c>
       <c r="R29">
-        <v>64.21601459819601</v>
+        <v>71.957251686015</v>
       </c>
       <c r="S29">
-        <v>0.0001297354015887078</v>
+        <v>0.0001278345149746758</v>
       </c>
       <c r="T29">
-        <v>0.0001297354015887078</v>
+        <v>0.0001278345149746758</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H30">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I30">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J30">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>10.61864727325545</v>
+        <v>15.40565189866367</v>
       </c>
       <c r="R30">
-        <v>95.56782545929902</v>
+        <v>138.650867087973</v>
       </c>
       <c r="S30">
-        <v>0.0001930753612241454</v>
+        <v>0.0002463180003364974</v>
       </c>
       <c r="T30">
-        <v>0.0001930753612241454</v>
+        <v>0.0002463180003364974</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H31">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I31">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J31">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>27.95118403166056</v>
+        <v>41.74243612467733</v>
       </c>
       <c r="R31">
-        <v>251.5606562849451</v>
+        <v>375.681925122096</v>
       </c>
       <c r="S31">
-        <v>0.000508227160642932</v>
+        <v>0.0006674117695919363</v>
       </c>
       <c r="T31">
-        <v>0.0005082271606429322</v>
+        <v>0.0006674117695919365</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H32">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I32">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J32">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>3.693744854910666</v>
+        <v>0.295628193416</v>
       </c>
       <c r="R32">
-        <v>33.243703694196</v>
+        <v>2.660653740744</v>
       </c>
       <c r="S32">
-        <v>6.716214445957982E-05</v>
+        <v>4.726742232286639E-06</v>
       </c>
       <c r="T32">
-        <v>6.716214445957982E-05</v>
+        <v>4.726742232286641E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H33">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I33">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J33">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>26.36331913144133</v>
+        <v>1.162464773776889</v>
       </c>
       <c r="R33">
-        <v>237.269872182972</v>
+        <v>10.462182963992</v>
       </c>
       <c r="S33">
-        <v>0.0004793555368573744</v>
+        <v>1.858642532116279E-05</v>
       </c>
       <c r="T33">
-        <v>0.0004793555368573745</v>
+        <v>1.85864253211628E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H34">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I34">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J34">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>25.780801437512</v>
+        <v>1.075967250586667</v>
       </c>
       <c r="R34">
-        <v>232.027212937608</v>
+        <v>9.68370525528</v>
       </c>
       <c r="S34">
-        <v>0.0004687638097493337</v>
+        <v>1.72034330864672E-05</v>
       </c>
       <c r="T34">
-        <v>0.0004687638097493337</v>
+        <v>1.72034330864672E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H35">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I35">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J35">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>7.520098364421333</v>
+        <v>0.2794699182533333</v>
       </c>
       <c r="R35">
-        <v>67.68088527979199</v>
+        <v>2.51522926428</v>
       </c>
       <c r="S35">
-        <v>0.0001367354683499737</v>
+        <v>4.468390683573521E-06</v>
       </c>
       <c r="T35">
-        <v>0.0001367354683499737</v>
+        <v>4.468390683573522E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H36">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I36">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J36">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>11.19159219743867</v>
+        <v>0.5384967544328889</v>
       </c>
       <c r="R36">
-        <v>100.724329776948</v>
+        <v>4.846470789895999</v>
       </c>
       <c r="S36">
-        <v>0.0002034930298170962</v>
+        <v>8.609920866192543E-06</v>
       </c>
       <c r="T36">
-        <v>0.0002034930298170962</v>
+        <v>8.609920866192545E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H37">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I37">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J37">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>29.45933178379333</v>
+        <v>1.459085699399111</v>
       </c>
       <c r="R37">
-        <v>265.13398605414</v>
+        <v>13.131771294592</v>
       </c>
       <c r="S37">
-        <v>0.0005356493138164169</v>
+        <v>2.332904015744664E-05</v>
       </c>
       <c r="T37">
-        <v>0.000535649313816417</v>
+        <v>2.332904015744665E-05</v>
       </c>
     </row>
   </sheetData>
